--- a/data/CS3/case30/case30_2034.xlsx
+++ b/data/CS3/case30/case30_2034.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCEEECC-8807-4CE7-A154-BC18BF38ADC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9808BE82-234A-4943-BF68-0B46B233679C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2034.xlsx
+++ b/data/CS3/case30/case30_2034.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9808BE82-234A-4943-BF68-0B46B233679C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FE039A-FC9D-4C47-B246-0ABBDF7439E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47985" yWindow="-3195" windowWidth="16650" windowHeight="9630" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2034.xlsx
+++ b/data/CS3/case30/case30_2034.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FE039A-FC9D-4C47-B246-0ABBDF7439E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FA1A9F-C4DE-473E-A196-E01AF7CCEB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47985" yWindow="-3195" windowWidth="16650" windowHeight="9630" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
